--- a/downloaded_files/MDPS352_Lecture-35646.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35646.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Adham Emad Abdelatif Rohayem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن سيف الله حسام ابو ناعم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABDELRAHMAN</x:t>
   </x:si>
   <x:si>
     <x:t>1230061</x:t>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -745,7 +736,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.414672338</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -777,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -809,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.4181934375</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -841,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -873,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -905,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4395296643</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -937,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4395296643</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -969,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1001,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45914.4807795139</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1033,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4807795139</x:v>
+        <x:v>45907.4205435185</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.4206327546</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1120,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45907.4150437153</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Lecture-35646.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35646.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Adham Emad Abdelatif Rohayem</x:t>
   </x:si>
   <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230061</x:t>
   </x:si>
   <x:si>
@@ -114,6 +123,24 @@
     <x:t>Mazen Saeed Ahmed AbdelKader</x:t>
   </x:si>
   <x:si>
+    <x:t>1230098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد محمد احمد نصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Mohamed Ahmed Nasr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عاطف محمود احمد خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed atef</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230113</x:t>
   </x:si>
   <x:si>
@@ -130,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>MARAWAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد رامى محمود غالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Mohamed Rami Mahmoud Ghaly</x:t>
   </x:si>
   <x:si>
     <x:t>1230140</x:t>
@@ -281,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -736,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.665162963</x:v>
+        <x:v>45927.4315463773</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -768,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4153724537</x:v>
+        <x:v>45907.665162963</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -800,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.4153724537</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -832,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45927.4361290509</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4395296643</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45907.4395296643</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.4807795139</x:v>
+        <x:v>45927.416431713</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45927.4196208333</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45927.5267244213</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1120,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45927.5772409375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1173,134 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45907.4205435185</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45907.4196388889</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45907.4206327546</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45907.4150437153</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS352_Lecture-35646.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35646.xlsx
@@ -1252,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4206327546</x:v>
+        <x:v>45927.7219298611</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Lecture-35646.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35646.xlsx
@@ -1188,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4205435185</x:v>
+        <x:v>45928.4973076736</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/MDPS352_Lecture-35646.xlsx
+++ b/downloaded_files/MDPS352_Lecture-35646.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Khaled Mokbel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230216</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -868,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4361290509</x:v>
+        <x:v>45907.4151501157</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4151501157</x:v>
+        <x:v>45907.4200526273</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4200526273</x:v>
+        <x:v>45907.4395296643</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4395296643</x:v>
+        <x:v>45907.4155174769</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4155174769</x:v>
+        <x:v>45927.416431713</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.416431713</x:v>
+        <x:v>45927.4196208333</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4196208333</x:v>
+        <x:v>45907.6649521643</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6649521643</x:v>
+        <x:v>45927.5267244213</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.5267244213</x:v>
+        <x:v>45927.5772409375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.5772409375</x:v>
+        <x:v>45928.4973076736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45928.4973076736</x:v>
+        <x:v>45907.4196388889</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4196388889</x:v>
+        <x:v>45927.7219298611</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.7219298611</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45907.4150437153</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
